--- a/Keys_ALL_test.xlsx
+++ b/Keys_ALL_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hty\creat\code\github\NCBI-SRA-Search-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54214493-85DD-4C2C-9FD4-E6277BF67621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E084FEB1-A1C7-44F3-8793-7FABD20EB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="1780" windowWidth="17750" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="-110" windowWidth="38140" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>Trichlorophenol </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>trichloromethane</t>
   </si>
@@ -33,6 +30,14 @@
   </si>
   <si>
     <t>Need keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trichloromethane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trichlorophenol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +379,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -387,26 +392,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
